--- a/biology/Zoologie/Eurylaimidae/Eurylaimidae.xlsx
+++ b/biology/Zoologie/Eurylaimidae/Eurylaimidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eurylaimidae (ou eurylaimidés) sont une famille de passereaux constituée de 12 genres et 20 espèces d'eurylaimes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux arboricoles de taille petite à moyenne (de 11,5 à 28,5 cm), à grosse tête et large bec et aplati, de sorte que vu de dessus, il semble triangulaire. La mandibule supérieure, légèrement recourbée, recouvre totalement la mandibule inférieure. 
 Ils se déplacent habituellement avec lenteur, et beaucoup portent un plumage vivement coloré.
@@ -543,7 +557,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition des eurylaimidés couvre la zone afrotropicale et la zone indomalaise.
 Leurs milieux de vie sont des forêts de plaines et de montagnes mais aussi des bois clairs et localement des zones cultivées et autres milieux ouverts.
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -609,7 +627,9 @@
           <t>Structure du nid</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux construisent d'élégants nids habituellement suspendus à une branche surplombant un cours d'eau. La construction piriforme comporte une entrée latérale et est constituée de matériaux divers : feuilles, brins d'herbe, radicelles, etc. Dans de nombreux cas, l'extérieur est recouvert de bandes de mousse dont certaines pendent sous le nid, contribuant sans aucun doute à le camoufler et à le protéger des prédateurs qui abondent dans les forêts humides.
 </t>
@@ -640,7 +660,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Calyptomena (3 espèces)
 Corydon (1 espèce)
@@ -681,7 +703,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
